--- a/biology/Botanique/Joycea/Joycea.xlsx
+++ b/biology/Botanique/Joycea/Joycea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joycea est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Danthonioideae, endémique en Australie, qui comprend trois espèces acceptées.
-Ce genre était autrefois inclus dans le genre Danthonia[2]. 
-Il est considéré par certains auteurs comme un synonyme de Rytidosperma Steud[3].
-Le nom générique honore le botaniste australien Joyce Winifred Vickery[2].
+Ce genre était autrefois inclus dans le genre Danthonia. 
+Il est considéré par certains auteurs comme un synonyme de Rytidosperma Steud.
+Le nom générique honore le botaniste australien Joyce Winifred Vickery.
 </t>
         </is>
       </c>
@@ -514,12 +526,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2010)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2010) :
 Joycea clelandii
 Joycea lepidopoda
-Joycea pallida[5]
+Joycea pallida
 Joycea sp. Humphreys 104</t>
         </is>
       </c>
